--- a/dataset/sample.xlsx
+++ b/dataset/sample.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="p1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="p2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="p3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="13">
   <si>
     <t xml:space="preserve">ds</t>
   </si>
@@ -57,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">ds2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cabeçalho inútil</t>
   </si>
 </sst>
 </file>
@@ -3088,7 +3092,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3139,6 +3143,10 @@
     </xf>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="539" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="530" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4060,7 +4068,7 @@
       <selection pane="topLeft" activeCell="K7" activeCellId="0" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -8805,11 +8813,11 @@
   </sheetPr>
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -9065,4 +9073,291 @@
     <oddFooter>&amp;CPágina &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:K8"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G16" activeCellId="0" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E3" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="n">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>830</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="K4" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1" t="n">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>810</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="K6" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>840</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>820</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="J8" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPágina &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>